--- a/Salidas 17-6-24.xlsx
+++ b/Salidas 17-6-24.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="493" documentId="11_BAD602ECE08CAD01B2799564B3595F9CDC566F61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{949FAE77-8D4E-E542-886F-30649C901446}"/>
+  <xr:revisionPtr revIDLastSave="527" documentId="11_BAD602ECE08CAD01B2799564B3595F9CDC566F61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8174FB2A-42E8-43B4-AC2D-B0C3B3D4529E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
-  <si>
-    <t>SALIDAS DE PREDICACIÓN SEMANA DEL 26/5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+  <si>
+    <t>SALIDAS DE PREDICACIÓN SEMANA DEL 02/06</t>
   </si>
   <si>
     <t>Dia</t>
@@ -66,7 +66,7 @@
     <t>Cong</t>
   </si>
   <si>
-    <t>Calle 1209 Y 1258</t>
+    <t>Calle 1260 Y 1209</t>
   </si>
   <si>
     <t>Joaquin B.</t>
@@ -90,13 +90,13 @@
     <t>Miercoles</t>
   </si>
   <si>
-    <t>Calle 1149 Y 1130</t>
+    <t>Calle 1149 Y 1134</t>
   </si>
   <si>
     <t>Rodolfo P.</t>
   </si>
   <si>
-    <t>Casa Margarita</t>
+    <t>Casa America</t>
   </si>
   <si>
     <t>Benjamin S.</t>
@@ -105,10 +105,10 @@
     <t>Jueves</t>
   </si>
   <si>
-    <t>Calle 1145A Y 1122</t>
-  </si>
-  <si>
-    <t>Casa Frattasi</t>
+    <t>Casa Flia Ojeda</t>
+  </si>
+  <si>
+    <t>Diagonal 1 Y Av Ing Allan</t>
   </si>
   <si>
     <t>Daniel C.</t>
@@ -120,7 +120,7 @@
     <t>Viernes</t>
   </si>
   <si>
-    <t>Calle 1149 Y 1136</t>
+    <t>Calle 1149 Y 1136A</t>
   </si>
   <si>
     <t>Kevin M.</t>
@@ -129,32 +129,44 @@
     <t>Sabado</t>
   </si>
   <si>
-    <t>Av Ing Allan Y 611</t>
-  </si>
-  <si>
-    <t>1 Y 3</t>
-  </si>
-  <si>
-    <t>Av Ing Allan Y 614</t>
-  </si>
-  <si>
-    <t>2 Y 4 Y 5</t>
-  </si>
-  <si>
-    <t>Calle 1211 Y 1244</t>
+    <t>Calle 616 Y 506</t>
+  </si>
+  <si>
+    <t>Ivan M.</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Calle 616 Y 508</t>
+  </si>
+  <si>
+    <t>Jonatan S.</t>
+  </si>
+  <si>
+    <t>G1 Y G4</t>
+  </si>
+  <si>
+    <t>Calle 616 Y 510</t>
+  </si>
+  <si>
+    <t>Miguel C.</t>
+  </si>
+  <si>
+    <t>G5 Y G3</t>
+  </si>
+  <si>
+    <t>Calle 1282 Y 1211</t>
   </si>
   <si>
     <t>Pablo L.</t>
-  </si>
-  <si>
-    <t>Nestor R.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,19 +678,19 @@
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.7421875" style="1"/>
-    <col min="3" max="3" width="7.80078125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="7.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10">
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -688,7 +700,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -708,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -729,7 +741,7 @@
       </c>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
@@ -749,7 +761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -769,7 +781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -789,7 +801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -800,7 +812,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>20</v>
@@ -810,7 +822,7 @@
       </c>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
@@ -821,7 +833,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>22</v>
@@ -830,7 +842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
@@ -841,7 +853,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="6">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
@@ -850,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
@@ -861,7 +873,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="5">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>26</v>
@@ -870,7 +882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
@@ -888,7 +900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
@@ -908,7 +920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="10" t="s">
         <v>31</v>
       </c>
@@ -919,16 +931,16 @@
         <v>32</v>
       </c>
       <c r="E14" s="21">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>31</v>
       </c>
@@ -936,49 +948,59 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="20">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="19">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="13">
+        <v>37</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
